--- a/biology/Histoire de la zoologie et de la botanique/Théodore_Monbeig/Théodore_Monbeig.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Théodore_Monbeig/Théodore_Monbeig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Monbeig</t>
+          <t>Théodore_Monbeig</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Théodore Monbeig-Andrieu est un missionnaire de la Société des missions étrangères de Paris et collecteur botaniste français né le 22 octobre 1875 à Salies-de-Béarn (Pyrénées-Atlantiques) et décédé le 12 juin 1914 près de Litang, au Tibet oriental, dans le Kham, incorporé au Séchuan.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Monbeig</t>
+          <t>Théodore_Monbeig</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été missionnaire, quittant Paris le 21 juillet 1899[1], d'abord en assistant du père Dubernard[2], puis titulaire du district de Tsé-kou (actuellement Yanmen), au Yunnan, village situé dans une vallée sur la rive droite du Mékong quand le 
-père Dubernard est assassiné et la mission mise à sac, complètement incendiée et ruinée en juillet 1905 [3]. En 1907, grâce à l'aide du consul de France au Yunnan, M. Leduc, la mission est finalement indemnisée pour les dommages causés en 1905. De 1907 à 1911, l'église, consacrée en février le jour de l'Épiphanie, et les établissements de la mission sont reconstruits par Théodore (maîtrise d'œuvre et maîtrise d'ouvrage) au village de Tché-Tchong[4] ou Tse-djrong (actuellement Cizhong), un peu plus au nord. Le P. Monbeig fonde aussi un petit couvent au village pour former une communauté de jeunes institutrices consacrées, les Filles de la Croix, dont la vocation est d'instruire les jeunes enfants et de former des catéchistes.
-Le 12 juin 1914, Théodore Monbeig est assassiné par une bande de cavaliers tibétains dirigée par Lozong Daoua[5],[6] près de Litang (Séchuan)[7], sur les pentes du mont Ngaraba.
-Il s'est intéressé aux dialectes tibétains (lo lo)[8]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été missionnaire, quittant Paris le 21 juillet 1899, d'abord en assistant du père Dubernard, puis titulaire du district de Tsé-kou (actuellement Yanmen), au Yunnan, village situé dans une vallée sur la rive droite du Mékong quand le 
+père Dubernard est assassiné et la mission mise à sac, complètement incendiée et ruinée en juillet 1905 . En 1907, grâce à l'aide du consul de France au Yunnan, M. Leduc, la mission est finalement indemnisée pour les dommages causés en 1905. De 1907 à 1911, l'église, consacrée en février le jour de l'Épiphanie, et les établissements de la mission sont reconstruits par Théodore (maîtrise d'œuvre et maîtrise d'ouvrage) au village de Tché-Tchong ou Tse-djrong (actuellement Cizhong), un peu plus au nord. Le P. Monbeig fonde aussi un petit couvent au village pour former une communauté de jeunes institutrices consacrées, les Filles de la Croix, dont la vocation est d'instruire les jeunes enfants et de former des catéchistes.
+Le 12 juin 1914, Théodore Monbeig est assassiné par une bande de cavaliers tibétains dirigée par Lozong Daoua, près de Litang (Séchuan), sur les pentes du mont Ngaraba.
+Il s'est intéressé aux dialectes tibétains (lo lo)
 Travaillant avec des botanistes anglais, ses collectes ont été plus adressées à Kew, mais quelques-unes l'ont été à l'Académie internationale de géographie botanique.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Monbeig</t>
+          <t>Théodore_Monbeig</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques plantes des échantillons qu'il a envoyés en France et en Angleterre lui ont été dédiées :
 Arisaema monbeigii Gamble ex C.E.C.Fisch. (1928) - Aracée de Chine (Yunnan) et Myanmar
@@ -562,7 +578,7 @@
 Senecio monbeigii H.Lév. (1915) - Astéracée de Chine (Yunnan)
 Silene monbeigii W.W.Sm. (1920) - Caryophyllacée de Chine (Yunnan)
 Sorbus monbeigii (Cardot) T.T.Yu (1974) - Rosacée Tibet (Synonyme : Pyrus monbeigii Cardot)
-Swida monbeigii (Hemsl.) Soják (1960) - Cornacée de Chine (Yunnan) (Synonyme : Cornus monbeigii Hemsl.)[9]
+Swida monbeigii (Hemsl.) Soják (1960) - Cornacée de Chine (Yunnan) (Synonyme : Cornus monbeigii Hemsl.)
 Viola monbeigii W.Becker (1928) - Violacée de Chine (Yunnan)
 Viola pseudo-monbeigii Chang - Violacée de Chine - Sichuan (Aikawa, Chongqing)</t>
         </is>
